--- a/Data/YwData.xlsx
+++ b/Data/YwData.xlsx
@@ -1,19 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37ddb746d34bbf38/Documents/NC State/ST 695/R Models/SeqSplitPlot/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F0454EFF8BA513CA7E0AB1A7FE012D16718D5FEA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D817534E-550E-42B3-93FF-E2FF850527A6}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="YwData" sheetId="1" r:id="rId2"/>
+    <sheet name="YwData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Sample ID</t>
   </si>
@@ -99,15 +119,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,40 +149,388 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -218,7 +589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -226,7 +597,7 @@
         <v>220</v>
       </c>
       <c r="C2" s="3">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D2" s="3">
         <v>500</v>
@@ -235,22 +606,22 @@
         <v>445.5</v>
       </c>
       <c r="F2" s="3">
-        <v>27.699999999999999</v>
+        <v>27.7</v>
       </c>
       <c r="G2" s="3">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H2" s="3">
         <v>4.9400000000000004</v>
       </c>
       <c r="I2" s="3">
-        <v>323.69999999999999</v>
+        <v>323.7</v>
       </c>
       <c r="J2" s="3">
         <v>3.5</v>
       </c>
       <c r="K2" s="3">
-        <v>22.829999999999998</v>
+        <v>22.83</v>
       </c>
       <c r="L2" s="3">
         <v>60979</v>
@@ -277,7 +648,7 @@
         <v>-0.10526666666666662</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -285,7 +656,7 @@
         <v>220</v>
       </c>
       <c r="C3" s="3">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="3">
         <v>1500</v>
@@ -294,19 +665,19 @@
         <v>145.80000000000001</v>
       </c>
       <c r="F3" s="3">
-        <v>16.699999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="G3" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="H3" s="3">
-        <v>14.710000000000001</v>
+        <v>14.71</v>
       </c>
       <c r="I3" s="3">
-        <v>138.90000000000001</v>
+        <v>138.9</v>
       </c>
       <c r="J3" s="3">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="K3" s="3">
         <v>37.43</v>
@@ -333,10 +704,10 @@
         <v>16.200000000000003</v>
       </c>
       <c r="S3" s="3">
-        <v>-0.091933333333333311</v>
+        <v>-9.1933333333333311E-2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -344,28 +715,28 @@
         <v>220</v>
       </c>
       <c r="C4" s="3">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="D4" s="3">
         <v>500</v>
       </c>
       <c r="E4" s="3">
-        <v>914.70000000000005</v>
+        <v>914.7</v>
       </c>
       <c r="F4" s="3">
-        <v>40.899999999999999</v>
+        <v>40.9</v>
       </c>
       <c r="G4" s="3">
-        <v>6.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="H4" s="3">
-        <v>6.3799999999999999</v>
+        <v>6.38</v>
       </c>
       <c r="I4" s="3">
-        <v>394.89999999999998</v>
+        <v>394.9</v>
       </c>
       <c r="J4" s="3">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="K4" s="3">
         <v>19.98</v>
@@ -392,10 +763,10 @@
         <v>101.63333333333334</v>
       </c>
       <c r="S4" s="3">
-        <v>-0.076108333333333333</v>
+        <v>-7.6108333333333333E-2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -403,7 +774,7 @@
         <v>220</v>
       </c>
       <c r="C5" s="3">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="D5" s="3">
         <v>1500</v>
@@ -412,13 +783,13 @@
         <v>302.10000000000002</v>
       </c>
       <c r="F5" s="3">
-        <v>23.100000000000001</v>
+        <v>23.1</v>
       </c>
       <c r="G5" s="3">
         <v>4.5</v>
       </c>
       <c r="H5" s="3">
-        <v>13.710000000000001</v>
+        <v>13.71</v>
       </c>
       <c r="I5" s="3">
         <v>188.5</v>
@@ -451,10 +822,10 @@
         <v>33.56666666666667</v>
       </c>
       <c r="S5" s="3">
-        <v>-0.085933333333333306</v>
+        <v>-8.5933333333333306E-2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -462,28 +833,28 @@
         <v>250</v>
       </c>
       <c r="C6" s="3">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D6" s="3">
         <v>500</v>
       </c>
       <c r="E6" s="3">
-        <v>434.19999999999999</v>
+        <v>434.2</v>
       </c>
       <c r="F6" s="3">
         <v>28</v>
       </c>
       <c r="G6" s="3">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="H6" s="3">
-        <v>6.7800000000000002</v>
+        <v>6.78</v>
       </c>
       <c r="I6" s="3">
-        <v>459.89999999999998</v>
+        <v>459.9</v>
       </c>
       <c r="J6" s="3">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="K6" s="3">
         <v>22.77</v>
@@ -513,7 +884,7 @@
         <v>-0.14489166666666664</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -521,7 +892,7 @@
         <v>250</v>
       </c>
       <c r="C7" s="3">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D7" s="3">
         <v>1500</v>
@@ -530,16 +901,16 @@
         <v>145.80000000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>16.699999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="G7" s="3">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H7" s="3">
         <v>12.26</v>
       </c>
       <c r="I7" s="3">
-        <v>194.90000000000001</v>
+        <v>194.9</v>
       </c>
       <c r="J7" s="3">
         <v>1.5</v>
@@ -554,7 +925,7 @@
         <v>104237</v>
       </c>
       <c r="N7" s="3">
-        <v>1.6799999999999999</v>
+        <v>1.68</v>
       </c>
       <c r="O7" s="3">
         <v>1</v>
@@ -572,7 +943,7 @@
         <v>-0.13135833333333335</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -580,28 +951,28 @@
         <v>250</v>
       </c>
       <c r="C8" s="3">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="D8" s="3">
         <v>500</v>
       </c>
       <c r="E8" s="3">
-        <v>882.60000000000002</v>
+        <v>882.6</v>
       </c>
       <c r="F8" s="3">
-        <v>40.600000000000001</v>
+        <v>40.6</v>
       </c>
       <c r="G8" s="3">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="H8" s="3">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="I8" s="3">
-        <v>482.10000000000002</v>
+        <v>482.1</v>
       </c>
       <c r="J8" s="3">
-        <v>6.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="K8" s="3">
         <v>20.77</v>
@@ -631,7 +1002,7 @@
         <v>-0.11230833333333334</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -639,31 +1010,31 @@
         <v>250</v>
       </c>
       <c r="C9" s="3">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="D9" s="3">
         <v>1500</v>
       </c>
       <c r="E9" s="3">
-        <v>277.19999999999999</v>
+        <v>277.2</v>
       </c>
       <c r="F9" s="3">
-        <v>23.600000000000001</v>
+        <v>23.6</v>
       </c>
       <c r="G9" s="3">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="H9" s="3">
-        <v>10.630000000000001</v>
+        <v>10.63</v>
       </c>
       <c r="I9" s="3">
         <v>192.5</v>
       </c>
       <c r="J9" s="3">
-        <v>2.3999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="K9" s="3">
-        <v>23.359999999999999</v>
+        <v>23.36</v>
       </c>
       <c r="L9" s="3">
         <v>63071</v>
@@ -691,5 +1062,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>